--- a/src/main/java/com/bt/og/testdata/testDataProd.xlsx
+++ b/src/main/java/com/bt/og/testdata/testDataProd.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laptop backup files\automation\src\main\java\com\bt\og\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED6CF7D-5724-4B3A-AEDD-19317C46339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DCF97665-C58A-40B2-828E-43E1A1BFE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23280" windowHeight="13224" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adminorderid" sheetId="15" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ProductsPage!$A$1:$F$105</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A139:G156"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1079,9 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1095,6 +1088,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
@@ -1865,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -1880,7 +1876,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1917,7 +1913,7 @@
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="13"/>
@@ -1940,7 +1936,7 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -2002,7 +1998,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="33"/>
@@ -2021,7 +2017,7 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="13"/>
@@ -2055,7 +2051,7 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="33"/>
@@ -2079,7 +2075,7 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="13"/>
@@ -2110,7 +2106,7 @@
     <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>117</v>
       </c>
       <c r="D15" s="33"/>
@@ -2123,11 +2119,11 @@
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2135,7 +2131,7 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>110</v>
       </c>
       <c r="B17" s="13"/>
@@ -2166,7 +2162,7 @@
     <row r="19" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="13"/>
@@ -2191,7 +2187,7 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="33"/>
@@ -2222,7 +2218,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>113</v>
       </c>
       <c r="D23" s="16"/>
@@ -2246,7 +2242,7 @@
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="16"/>
@@ -2276,7 +2272,7 @@
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>114</v>
       </c>
       <c r="D27" s="16"/>
@@ -2300,7 +2296,7 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="16"/>
@@ -2330,7 +2326,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="43" t="s">
         <v>154</v>
       </c>
       <c r="D31" s="16"/>
@@ -2354,7 +2350,7 @@
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="13"/>
@@ -2376,7 +2372,7 @@
       <c r="C34" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="34"/>
       <c r="F34" s="35"/>
       <c r="G34" s="16"/>
@@ -2388,7 +2384,7 @@
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="16"/>
@@ -2411,7 +2407,7 @@
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="43" t="s">
         <v>153</v>
       </c>
       <c r="B37" s="37"/>
@@ -2441,7 +2437,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>153</v>
       </c>
       <c r="D39" s="16"/>
@@ -2465,7 +2461,7 @@
       <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="37"/>
@@ -2480,7 +2476,7 @@
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>142</v>
       </c>
       <c r="C42" s="16"/>
@@ -2495,7 +2491,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="43" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="16"/>
@@ -2507,10 +2503,10 @@
       <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:11" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -2519,11 +2515,11 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="43"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>148</v>
       </c>
       <c r="C45" s="16"/>
@@ -2537,8 +2533,8 @@
     </row>
     <row r="46" spans="1:11" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="44" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="43" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="13"/>
@@ -2548,7 +2544,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="43"/>
+      <c r="K46" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2564,7 +2560,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
